--- a/09_Literature_Review/02_EBSCO_Results_Lists/delivery_20220314_final.xlsx
+++ b/09_Literature_Review/02_EBSCO_Results_Lists/delivery_20220314_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/01_Uni/5. Semester/01_Masterarbeit/03_R_Project_MA/09_Literature_Review/02_EBSCO_Results_Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A2B2E-AFC0-9D47-A1EF-0B2E1425A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A229AC-1B0D-4B4B-97FB-BAC51BBD82D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1289">
   <si>
     <t>Article Title</t>
   </si>
@@ -4339,9 +4339,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X61" sqref="X61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7799,7 +7799,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="335" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>591</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="350" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="350" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>599</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="380" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="380" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>608</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>615</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="350" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="350" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>624</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>632</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>639</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="224" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="224" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>647</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="Q72" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="R72" s="5" t="s">
+      <c r="R72" s="9" t="s">
         <v>654</v>
       </c>
       <c r="T72" s="6" t="s">
@@ -8219,8 +8219,11 @@
       <c r="V72" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" ht="272" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W72" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>655</v>
       </c>
@@ -8273,7 +8276,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="335" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>664</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>672</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>680</v>
       </c>
@@ -8426,7 +8429,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="335" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>687</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>696</v>
       </c>
@@ -8526,7 +8529,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>702</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>711</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="304" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="304" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>719</v>
       </c>
@@ -8681,7 +8684,7 @@
       <c r="Q81" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="R81" s="5" t="s">
+      <c r="R81" s="9" t="s">
         <v>726</v>
       </c>
       <c r="T81" s="6" t="s">
@@ -8690,8 +8693,11 @@
       <c r="U81" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" ht="320" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W81" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>727</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="320" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>735</v>
       </c>
@@ -8797,7 +8803,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>744</v>
       </c>
@@ -8850,7 +8856,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>752</v>
       </c>
@@ -8897,7 +8903,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>758</v>
       </c>
@@ -8950,7 +8956,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>767</v>
       </c>
@@ -9003,7 +9009,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="272" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>776</v>
       </c>
@@ -9052,7 +9058,7 @@
       <c r="Q88" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="R88" s="5" t="s">
+      <c r="R88" s="9" t="s">
         <v>784</v>
       </c>
       <c r="T88" s="6" t="s">
@@ -9061,8 +9067,11 @@
       <c r="V88" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W88" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>785</v>
       </c>
@@ -9115,7 +9124,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>792</v>
       </c>
@@ -9168,7 +9177,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>801</v>
       </c>
@@ -9221,7 +9230,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="320" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="320" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>810</v>
       </c>
@@ -9270,7 +9279,7 @@
       <c r="Q92" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="R92" s="5" t="s">
+      <c r="R92" s="9" t="s">
         <v>817</v>
       </c>
       <c r="T92" s="6" t="s">
@@ -9279,8 +9288,11 @@
       <c r="U92" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" ht="256" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W92" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>818</v>
       </c>
@@ -9330,7 +9342,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>825</v>
       </c>
@@ -9383,7 +9395,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>832</v>
       </c>
@@ -9436,7 +9448,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="380" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" ht="380" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>839</v>
       </c>
@@ -9480,7 +9492,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>846</v>
       </c>
@@ -9533,7 +9545,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>854</v>
       </c>
@@ -9586,7 +9598,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>862</v>
       </c>
@@ -9639,7 +9651,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>871</v>
       </c>
@@ -9692,7 +9704,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>880</v>
       </c>
@@ -9745,7 +9757,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="335" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>888</v>
       </c>
@@ -9798,7 +9810,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>896</v>
       </c>
@@ -9851,7 +9863,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>905</v>
       </c>
@@ -9904,7 +9916,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="288" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>913</v>
       </c>
@@ -9957,7 +9969,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="350" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="350" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>924</v>
       </c>
@@ -10010,7 +10022,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>932</v>
       </c>
@@ -10063,7 +10075,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>939</v>
       </c>
@@ -10113,7 +10125,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="320" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="320" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>946</v>
       </c>
@@ -10162,7 +10174,7 @@
       <c r="Q109" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="R109" s="5" t="s">
+      <c r="R109" s="9" t="s">
         <v>953</v>
       </c>
       <c r="T109" s="6" t="s">
@@ -10171,8 +10183,11 @@
       <c r="V109" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" ht="304" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W109" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>954</v>
       </c>
@@ -10219,7 +10234,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>960</v>
       </c>
@@ -10272,7 +10287,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>968</v>
       </c>
@@ -10325,7 +10340,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>977</v>
       </c>
@@ -10378,7 +10393,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>985</v>
       </c>
@@ -10428,7 +10443,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>993</v>
       </c>
@@ -10474,11 +10489,11 @@
       <c r="Q115" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="R115" s="5" t="s">
+      <c r="R115" s="9" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>993</v>
       </c>
@@ -10528,7 +10543,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>993</v>
       </c>
@@ -10578,7 +10593,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>993</v>
       </c>
@@ -10628,7 +10643,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>993</v>
       </c>
@@ -10678,7 +10693,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>993</v>
       </c>
@@ -10728,7 +10743,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>993</v>
       </c>
@@ -10774,11 +10789,11 @@
       <c r="Q121" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="R121" s="5" t="s">
+      <c r="R121" s="9" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>993</v>
       </c>
@@ -10824,11 +10839,11 @@
       <c r="Q122" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="R122" s="5" t="s">
+      <c r="R122" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>993</v>
       </c>
@@ -10874,11 +10889,11 @@
       <c r="Q123" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="R123" s="5" t="s">
+      <c r="R123" s="9" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="160" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="160" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>993</v>
       </c>
@@ -10924,7 +10939,7 @@
       <c r="Q124" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="R124" s="5" t="s">
+      <c r="R124" s="9" t="s">
         <v>1039</v>
       </c>
       <c r="T124" s="6" t="s">
@@ -10933,8 +10948,11 @@
       <c r="U124" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" ht="350" x14ac:dyDescent="0.2">
+      <c r="W124" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="350" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>1040</v>
       </c>
@@ -10983,7 +11001,7 @@
       <c r="Q125" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="R125" s="5" t="s">
+      <c r="R125" s="9" t="s">
         <v>1049</v>
       </c>
       <c r="T125" s="6" t="s">
@@ -10992,8 +11010,11 @@
       <c r="V125" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" ht="350" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W125" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="350" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>1050</v>
       </c>
@@ -11046,7 +11067,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="320" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>1058</v>
       </c>
@@ -11099,7 +11120,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>1066</v>
       </c>
@@ -11146,7 +11167,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>1072</v>
       </c>
@@ -11193,7 +11214,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>1079</v>
       </c>
@@ -11246,7 +11267,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="380" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="380" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>1087</v>
       </c>
@@ -11299,7 +11320,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="380" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="380" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>1095</v>
       </c>
@@ -11352,7 +11373,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>1104</v>
       </c>
@@ -11405,7 +11426,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>1116</v>
       </c>
@@ -11458,7 +11479,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>1125</v>
       </c>
@@ -11499,7 +11520,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>1131</v>
       </c>
@@ -11552,7 +11573,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="335" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11605,7 +11626,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>1147</v>
       </c>
@@ -11658,7 +11679,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="335" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>1155</v>
       </c>
@@ -11711,7 +11732,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="335" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>1163</v>
       </c>
@@ -11758,7 +11779,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="380" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="380" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>1170</v>
       </c>
@@ -11811,7 +11832,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>1178</v>
       </c>
@@ -11864,7 +11885,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>1186</v>
       </c>
@@ -11917,7 +11938,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="272" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>1196</v>
       </c>
@@ -11960,7 +11981,7 @@
       <c r="Q144" s="4" t="s">
         <v>1201</v>
       </c>
-      <c r="R144" s="5" t="s">
+      <c r="R144" s="9" t="s">
         <v>1202</v>
       </c>
       <c r="T144" s="6" t="s">
@@ -11969,8 +11990,11 @@
       <c r="U144" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" ht="288" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W144" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>1203</v>
       </c>
@@ -12023,7 +12047,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="320" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" ht="320" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>1211</v>
       </c>
@@ -12072,7 +12096,7 @@
       <c r="Q146" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="R146" s="5" t="s">
+      <c r="R146" s="9" t="s">
         <v>1218</v>
       </c>
       <c r="T146" s="6" t="s">
@@ -12081,8 +12105,11 @@
       <c r="V146" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" ht="192" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W146" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>1219</v>
       </c>
@@ -12135,7 +12162,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>1227</v>
       </c>
@@ -12188,7 +12215,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>1235</v>
       </c>
@@ -12241,7 +12268,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="240" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" ht="240" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>1244</v>
       </c>
@@ -12290,7 +12317,7 @@
       <c r="Q150" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="R150" s="5" t="s">
+      <c r="R150" s="9" t="s">
         <v>1251</v>
       </c>
       <c r="T150" s="6" t="s">
@@ -12299,8 +12326,11 @@
       <c r="U150" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" ht="272" x14ac:dyDescent="0.2">
+      <c r="W150" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>1252</v>
       </c>
@@ -12349,7 +12379,7 @@
       <c r="Q151" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="R151" s="5" t="s">
+      <c r="R151" s="9" t="s">
         <v>1259</v>
       </c>
       <c r="T151" s="6" t="s">
@@ -12358,8 +12388,11 @@
       <c r="V151" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" ht="272" x14ac:dyDescent="0.2">
+      <c r="W151" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>1260</v>
       </c>
@@ -12408,7 +12441,7 @@
       <c r="Q152" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="R152" s="5" t="s">
+      <c r="R152" s="9" t="s">
         <v>1267</v>
       </c>
       <c r="T152" s="6" t="s">
@@ -12417,8 +12450,11 @@
       <c r="V152" s="6" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" ht="365" x14ac:dyDescent="0.2">
+      <c r="W152" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="365" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>1268</v>
       </c>
@@ -12467,7 +12503,7 @@
       <c r="Q153" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="R153" s="5" t="s">
+      <c r="R153" s="9" t="s">
         <v>1275</v>
       </c>
       <c r="T153" s="6" t="s">
@@ -12477,7 +12513,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="288" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>1276</v>
       </c>
@@ -12548,6 +12584,23 @@
     <hyperlink ref="R48" r:id="rId13" xr:uid="{8B2085BF-C2D4-B841-9717-57D593E4794C}"/>
     <hyperlink ref="R60" r:id="rId14" xr:uid="{E667F685-6C7C-D442-BF2E-2ED0C4A0B16A}"/>
     <hyperlink ref="R61" r:id="rId15" xr:uid="{5EF8616A-E56B-0449-93E0-00410BA75AFD}"/>
+    <hyperlink ref="R72" r:id="rId16" xr:uid="{DE3AC83B-E3F3-FA43-9D5B-3A214BD39D0E}"/>
+    <hyperlink ref="R81" r:id="rId17" xr:uid="{D05F0AF7-167B-2148-974B-E580FB4F827A}"/>
+    <hyperlink ref="R88" r:id="rId18" xr:uid="{B076931E-7532-E146-ADC4-C581565C664E}"/>
+    <hyperlink ref="R92" r:id="rId19" xr:uid="{B62D48DA-1FBE-7A43-B41E-73864600C4F6}"/>
+    <hyperlink ref="R109" r:id="rId20" xr:uid="{30BCCB86-BBF6-9545-BE3C-12458421F251}"/>
+    <hyperlink ref="R124" r:id="rId21" xr:uid="{17574B15-9A5C-694B-9EBC-B21D5AB23D81}"/>
+    <hyperlink ref="R123" r:id="rId22" xr:uid="{C31BD42A-874A-904B-B101-AAB0735D6F8B}"/>
+    <hyperlink ref="R122" r:id="rId23" xr:uid="{AD015D32-A695-2248-918B-CDF6239166B2}"/>
+    <hyperlink ref="R121" r:id="rId24" xr:uid="{97FB33EB-3F1F-8144-9E4F-7AB5F0C39D79}"/>
+    <hyperlink ref="R115" r:id="rId25" xr:uid="{60421EA3-470D-5A43-8DA4-501E7E16DA28}"/>
+    <hyperlink ref="R125" r:id="rId26" xr:uid="{D335071F-A031-2C4F-8BC8-2ACB1950F9E3}"/>
+    <hyperlink ref="R144" r:id="rId27" xr:uid="{EFDEE26D-FCFC-634A-BD53-9AA574E22D8E}"/>
+    <hyperlink ref="R146" r:id="rId28" xr:uid="{08C67D05-AEFA-E34A-9567-721C413A9889}"/>
+    <hyperlink ref="R150" r:id="rId29" xr:uid="{67605C59-1C59-4542-8D66-CA20EF13C0E1}"/>
+    <hyperlink ref="R151" r:id="rId30" xr:uid="{0FC1786B-17DB-C94D-997D-6D23515FEEB0}"/>
+    <hyperlink ref="R152" r:id="rId31" xr:uid="{9BDCDC0B-3071-C34B-9154-A4817C5EB997}"/>
+    <hyperlink ref="R153" r:id="rId32" xr:uid="{4DA1AA6B-D0B2-9C42-BA67-1DF914DF3D74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
